--- a/uploads/Template_Produtos_Mpozenato_CADASTRO_Kit's Paraná.xlsx
+++ b/uploads/Template_Produtos_Mpozenato_CADASTRO_Kit's Paraná.xlsx
@@ -23310,12 +23310,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -23353,12 +23353,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -23396,12 +23396,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -23439,12 +23439,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -23482,12 +23482,12 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -23525,12 +23525,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -23568,12 +23568,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -23611,12 +23611,12 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -23654,12 +23654,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -23697,12 +23697,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -23740,12 +23740,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -23783,12 +23783,12 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -23826,12 +23826,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -23869,12 +23869,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -23912,12 +23912,12 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -23955,12 +23955,12 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -23998,12 +23998,12 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -24041,12 +24041,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -24084,12 +24084,12 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -24127,12 +24127,12 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -24170,12 +24170,12 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -24213,12 +24213,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -24256,12 +24256,12 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -24299,12 +24299,12 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -24342,12 +24342,12 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -24385,12 +24385,12 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -24428,12 +24428,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -24471,12 +24471,12 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -24514,12 +24514,12 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -24557,12 +24557,12 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -24600,12 +24600,12 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -24643,12 +24643,12 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -24686,12 +24686,12 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -24729,12 +24729,12 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -24772,12 +24772,12 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -24815,12 +24815,12 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -24858,12 +24858,12 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -24901,12 +24901,12 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -24944,12 +24944,12 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -24987,12 +24987,12 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -25030,12 +25030,12 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -25073,12 +25073,12 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -25116,12 +25116,12 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -25159,12 +25159,12 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -25202,12 +25202,12 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -25245,12 +25245,12 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -25288,12 +25288,12 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -25331,12 +25331,12 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -25374,12 +25374,12 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -25417,12 +25417,12 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -25460,12 +25460,12 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -25503,12 +25503,12 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -25546,12 +25546,12 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -25589,12 +25589,12 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -25632,12 +25632,12 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -25675,12 +25675,12 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -25718,12 +25718,12 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -25761,12 +25761,12 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -25804,12 +25804,12 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -25847,12 +25847,12 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -25890,12 +25890,12 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -25933,12 +25933,12 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -25976,12 +25976,12 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -26019,12 +26019,12 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -26062,12 +26062,12 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -26105,12 +26105,12 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -26148,12 +26148,12 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -26191,12 +26191,12 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -26234,12 +26234,12 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -26277,12 +26277,12 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -26320,12 +26320,12 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -26363,12 +26363,12 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -26406,12 +26406,12 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -26449,12 +26449,12 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -26492,12 +26492,12 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -26535,12 +26535,12 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -26578,12 +26578,12 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -26621,12 +26621,12 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -26664,12 +26664,12 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -26707,12 +26707,12 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -26750,12 +26750,12 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -26793,12 +26793,12 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -26836,12 +26836,12 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -26879,12 +26879,12 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>11/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -30059,7 +30059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -30993,7 +30993,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -31010,12 +31010,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>7908816371594</t>
+          <t>7908816371587</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ARM AER 120CM 2 PT ART/MINSK FJ/RISCATTO</t>
+          <t>ARM AER 80 2PT VID ART/MINSK FJ/ABS PTO</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -31037,12 +31037,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>7908816371587</t>
+          <t>7908816371624</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ARM AER 80 2PT VID ART/MINSK FJ/ABS PTO</t>
+          <t>ARM AER DE CANTO RETO ART/MINSK FJ/RISC</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -31064,17 +31064,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>7908816371624</t>
+          <t>7908816359448</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ARM AER DE CANTO RETO ART/MINSK FJ/RISC</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -31091,7 +31091,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>7908816359448</t>
+          <t>7908816352685</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -31101,7 +31101,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -31118,12 +31118,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>7908816359448</t>
+          <t>7908816371679</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>BALC DE CANTO C TP ART/MINSK BCO/ARTICO</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -31145,12 +31145,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>7908816352685</t>
+          <t>7908816371655</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>BALC 80CM 2 PT C TP ART/MINSK BCO/ARTICO</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -31167,17 +31167,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>7908816371822</t>
+          <t>7908816371891</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>7908816352685</t>
+          <t>7908816371839</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>BALCAO 2PT NALA/VIVIAN NOGUEIRA/OFF/RIP</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -31194,17 +31194,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>7908816371822</t>
+          <t>7908816371891</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>7908816371679</t>
+          <t>7908816371860</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>BALC DE CANTO C TP ART/MINSK BCO/ARTICO</t>
+          <t>COZINHA NALA/VIVIAN NOGUEIRA/OFF/RIP</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -31221,17 +31221,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>7908816371822</t>
+          <t>7908816371907</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>7908816371655</t>
+          <t>7908816371846</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>BALC 80CM 2 PT C TP ART/MINSK BCO/ARTICO</t>
+          <t>BALCAO 2PT NALA/VIVIAN FREIJO/GRIS</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -31248,17 +31248,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>7908816371891</t>
+          <t>7908816371907</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>7908816371839</t>
+          <t>7908816371877</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>BALCAO 2PT NALA/VIVIAN NOGUEIRA/OFF/RIP</t>
+          <t>COZINHA NALA/VIVIAN FREIJO/GRIS</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -31275,17 +31275,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>7908816371891</t>
+          <t>7908816371914</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>7908816371860</t>
+          <t>7908816371853</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>COZINHA NALA/VIVIAN NOGUEIRA/OFF/RIP</t>
+          <t>BALCAO 2PT NALA/VIVIAN FJ/SUPREMO/RIP FJ</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -31302,17 +31302,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>7908816371907</t>
+          <t>7908816371914</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>7908816371846</t>
+          <t>7908816371884</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>BALCAO 2PT NALA/VIVIAN FREIJO/GRIS</t>
+          <t>COZINHA NALA/VIVIAN FJ/SUPREMO/RIP FJ</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -31329,17 +31329,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>7908816371907</t>
+          <t>7908816371969</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>7908816371877</t>
+          <t>7908816371921</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>COZINHA NALA/VIVIAN FREIJO/GRIS</t>
+          <t>BALCAO 2PT NALA PLUS/VIVIAN FREIJO/SOFT</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -31356,17 +31356,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>7908816371914</t>
+          <t>7908816371969</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>7908816371853</t>
+          <t>7908816371945</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>BALCAO 2PT NALA/VIVIAN FJ/SUPREMO/RIP FJ</t>
+          <t>COZINHA NALA PLUS/VIVIAN FREIJO/SOFT</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -31383,17 +31383,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>7908816371914</t>
+          <t>7908816371976</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>7908816371884</t>
+          <t>7908816371938</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>COZINHA NALA/VIVIAN FJ/SUPREMO/RIP FJ</t>
+          <t>BALCAO 2PT NALA PLUS/VIVIAN FREIJO/GRIS</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -31410,17 +31410,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>7908816371969</t>
+          <t>7908816371976</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>7908816371921</t>
+          <t>7908816371952</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>BALCAO 2PT NALA PLUS/VIVIAN FREIJO/SOFT</t>
+          <t>COZINHA NALA PLUS/VIVIAN FREIJO/GRIS</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -31437,17 +31437,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>7908816371969</t>
+          <t>7908816372133</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>7908816371945</t>
+          <t>7908816372096</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>COZINHA NALA PLUS/VIVIAN FREIJO/SOFT</t>
+          <t>BALCAO VERSALHES PLUS/LOUIS FREIJO/SOFT</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -31464,17 +31464,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>7908816371976</t>
+          <t>7908816372133</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>7908816371938</t>
+          <t>7908816372119</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>BALCAO 2PT NALA PLUS/VIVIAN FREIJO/GRIS</t>
+          <t>COZ VERSALHES PLUS/LOUIS FREIJO/SOFT</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -31491,17 +31491,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>7908816371976</t>
+          <t>7908816372140</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>7908816371952</t>
+          <t>7908816372102</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>COZINHA NALA PLUS/VIVIAN FREIJO/GRIS</t>
+          <t>BALCAO VERSALHES PLUS/LOUIS FREIJO/GRIS</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -31518,17 +31518,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>7908816372133</t>
+          <t>7908816372140</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>7908816372096</t>
+          <t>7908816372126</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>BALCAO VERSALHES PLUS/LOUIS FREIJO/SOFT</t>
+          <t>COZ VERSALHES PLUS/LOUIS FREIJO/GRIS</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -31545,17 +31545,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>7908816372133</t>
+          <t>7908816372188</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>7908816372119</t>
+          <t>7908816372171</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>COZ VERSALHES PLUS/LOUIS FREIJO/SOFT</t>
+          <t>BALC 3028 3P 1G VERT PLUS/LAURA SOFT/FJ</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -31572,17 +31572,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>7908816372140</t>
+          <t>7908816372188</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>7908816372102</t>
+          <t>7908816372157</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>BALCAO VERSALHES PLUS/LOUIS FREIJO/GRIS</t>
+          <t>TAMPO 120CM VERT MDF 12MM</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -31599,17 +31599,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>7908816372140</t>
+          <t>7908816372195</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>7908816372126</t>
+          <t>7908816372171</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>COZ VERSALHES PLUS/LOUIS FREIJO/GRIS</t>
+          <t>BALC 3028 3P 1G VERT PLUS/LAURA SOFT/FJ</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -31626,17 +31626,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>7908816372188</t>
+          <t>7908816372195</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>7908816372171</t>
+          <t>7895171302007</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>BALC 3028 3P 1G VERT PLUS/LAURA SOFT/FJ</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -31653,17 +31653,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>7908816372188</t>
+          <t>7908816372225</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>7908816372157</t>
+          <t>7908816372164</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>TAMPO 120CM VERT MDF 12MM</t>
+          <t>BALC 3027 3P 1G VERT PLUS/LAURA SOFT/FJ</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -31680,17 +31680,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>7908816372195</t>
+          <t>7908816372225</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>7908816372171</t>
+          <t>7908816372201</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>BALC 3028 3P 1G VERT PLUS/LAURA SOFT/FJ</t>
+          <t>COZ VERT PLUS/LAURA SOFT/FREIJO/ABS PTO</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -31707,17 +31707,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>7908816372195</t>
+          <t>7908816372232</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>7895171302007</t>
+          <t>7908816372164</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>BALC 3027 3P 1G VERT PLUS/LAURA SOFT/FJ</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -31734,17 +31734,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>7908816372225</t>
+          <t>7908816372232</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>7908816372164</t>
+          <t>7908816372218</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>BALC 3027 3P 1G VERT PLUS/LAURA SOFT/FJ</t>
+          <t>COZ VERT PLUS/LAURA FREIJO/ABS PRETO</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -31761,17 +31761,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>7908816372225</t>
+          <t>7908816372249</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>7908816372201</t>
+          <t>7908816372171</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>COZ VERT PLUS/LAURA SOFT/FREIJO/ABS PTO</t>
+          <t>BALC 3028 3P 1G VERT PLUS/LAURA SOFT/FJ</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -31788,17 +31788,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>7908816372232</t>
+          <t>7908816372249</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>7908816372164</t>
+          <t>7908816372201</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>BALC 3027 3P 1G VERT PLUS/LAURA SOFT/FJ</t>
+          <t>COZ VERT PLUS/LAURA SOFT/FREIJO/ABS PTO</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -31815,17 +31815,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>7908816372232</t>
+          <t>7908816372256</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>7908816372218</t>
+          <t>7908816372171</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>COZ VERT PLUS/LAURA FREIJO/ABS PRETO</t>
+          <t>BALC 3028 3P 1G VERT PLUS/LAURA SOFT/FJ</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -31842,17 +31842,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>7908816372249</t>
+          <t>7908816372256</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>7908816372171</t>
+          <t>7908816372218</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>BALC 3028 3P 1G VERT PLUS/LAURA SOFT/FJ</t>
+          <t>COZ VERT PLUS/LAURA FREIJO/ABS PRETO</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -31869,17 +31869,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>7908816372249</t>
+          <t>7908816372263</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>7908816372201</t>
+          <t>7908816372171</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>COZ VERT PLUS/LAURA SOFT/FREIJO/ABS PTO</t>
+          <t>BALC 3028 3P 1G VERT PLUS/LAURA SOFT/FJ</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -31896,17 +31896,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>7908816372256</t>
+          <t>7908816372263</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>7908816372171</t>
+          <t>7908816372201</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>BALC 3028 3P 1G VERT PLUS/LAURA SOFT/FJ</t>
+          <t>COZ VERT PLUS/LAURA SOFT/FREIJO/ABS PTO</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -31923,17 +31923,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>7908816372256</t>
+          <t>7908816372263</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>7908816372218</t>
+          <t>7908816372157</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>COZ VERT PLUS/LAURA FREIJO/ABS PRETO</t>
+          <t>TAMPO 120CM VERT MDF 12MM</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -31950,7 +31950,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>7908816372263</t>
+          <t>7908816372270</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -31977,17 +31977,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>7908816372263</t>
+          <t>7908816372270</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>7908816372201</t>
+          <t>7908816372218</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>COZ VERT PLUS/LAURA SOFT/FREIJO/ABS PTO</t>
+          <t>COZ VERT PLUS/LAURA FREIJO/ABS PRETO</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -32004,7 +32004,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>7908816372263</t>
+          <t>7908816372270</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -32031,7 +32031,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>7908816372270</t>
+          <t>7908816372287</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -32058,17 +32058,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>7908816372270</t>
+          <t>7908816372287</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>7908816372218</t>
+          <t>7908816372201</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>COZ VERT PLUS/LAURA FREIJO/ABS PRETO</t>
+          <t>COZ VERT PLUS/LAURA SOFT/FREIJO/ABS PTO</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -32085,17 +32085,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>7908816372270</t>
+          <t>7908816372287</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>7908816372157</t>
+          <t>7895171302007</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>TAMPO 120CM VERT MDF 12MM</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -32112,7 +32112,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>7908816372287</t>
+          <t>7908816372294</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -32139,17 +32139,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>7908816372287</t>
+          <t>7908816372294</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>7908816372201</t>
+          <t>7908816372218</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>COZ VERT PLUS/LAURA SOFT/FREIJO/ABS PTO</t>
+          <t>COZ VERT PLUS/LAURA FREIJO/ABS PRETO</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -32166,7 +32166,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>7908816372287</t>
+          <t>7908816372294</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -32193,17 +32193,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>7908816372294</t>
+          <t>7908816372324</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>7908816372171</t>
+          <t>7908816372300</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>BALC 3028 3P 1G VERT PLUS/LAURA SOFT/FJ</t>
+          <t>MESA RETRATIL DUO/SALT BRANCO</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -32220,17 +32220,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>7908816372294</t>
+          <t>7908816372331</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>7908816372218</t>
+          <t>7908816372317</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>COZ VERT PLUS/LAURA FREIJO/ABS PRETO</t>
+          <t>MESA RETRATIL DUO/SALT PRETO</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -32247,17 +32247,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>7908816372294</t>
+          <t>7908816372348</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7895171302007</t>
+          <t>7908816372300</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MESA RETRATIL DUO/SALT BRANCO</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -32274,17 +32274,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>7908816372324</t>
+          <t>7908816372355</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>7908816372300</t>
+          <t>7908816372317</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>MESA RETRATIL DUO/SALT BRANCO</t>
+          <t>MESA RETRATIL DUO/SALT PRETO</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -32301,17 +32301,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>7908816372331</t>
+          <t>7908816372362</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>7908816372317</t>
+          <t>7908816372300</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>MESA RETRATIL DUO/SALT PRETO</t>
+          <t>MESA RETRATIL DUO/SALT BRANCO</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -32328,17 +32328,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>7908816372348</t>
+          <t>7908816372379</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>7908816372300</t>
+          <t>7908816372317</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>MESA RETRATIL DUO/SALT BRANCO</t>
+          <t>MESA RETRATIL DUO/SALT PRETO</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -32355,17 +32355,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>7908816372355</t>
+          <t>7908816372386</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7908816372317</t>
+          <t>7908816372300</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>MESA RETRATIL DUO/SALT PRETO</t>
+          <t>MESA RETRATIL DUO/SALT BRANCO</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -32382,17 +32382,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>7908816372362</t>
+          <t>7908816372393</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>7908816372300</t>
+          <t>7908816372317</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>MESA RETRATIL DUO/SALT BRANCO</t>
+          <t>MESA RETRATIL DUO/SALT PRETO</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -32401,87 +32401,6 @@
         </is>
       </c>
       <c r="F86" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>7908816372379</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>7908816372317</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>MESA RETRATIL DUO/SALT PRETO</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>7908816372386</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>7908816372300</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>MESA RETRATIL DUO/SALT BRANCO</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>7908816372393</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>7908816372317</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>MESA RETRATIL DUO/SALT PRETO</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
         <is>
           <t>0</t>
         </is>
